--- a/06_find_changes/02_change_thresholds_details/12_summarise_2010_thresholds/gmw_2010_hh_ref_projects_thresholds.xlsx
+++ b/06_find_changes/02_change_thresholds_details/12_summarise_2010_thresholds/gmw_2010_hh_ref_projects_thresholds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/Development/globalmangrovewatch/gmw_jaxa_sar_change_analysis/06_find_changes/02_change_thresholds_details/12_summarise_2010_thresholds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB965588-5FDC-3942-8886-6EF8B540A89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5447433B-8074-2D4F-AF95-D9AADA5661EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="17240" windowHeight="23860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="29640" windowHeight="23860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref_thresholds" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -870,2605 +870,2608 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>118</v>
+      </c>
+      <c r="D2">
         <v>-14</v>
       </c>
-      <c r="D2">
-        <v>-16.5</v>
-      </c>
-      <c r="E2">
-        <v>88553</v>
-      </c>
       <c r="F2">
-        <v>20260</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>-10.5</v>
+        <v>-19.5</v>
       </c>
       <c r="D3">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E3">
-        <v>310624</v>
+        <v>561574</v>
       </c>
       <c r="F3">
-        <v>55779</v>
+        <v>162268</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>-18.5</v>
+        <v>-18</v>
       </c>
       <c r="D4">
-        <v>-14.5</v>
+        <v>-15</v>
       </c>
       <c r="E4">
-        <v>126382</v>
+        <v>3467115</v>
       </c>
       <c r="F4">
-        <v>314301</v>
+        <v>1212328</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>-12.5</v>
+        <v>-15.5</v>
       </c>
       <c r="D5">
-        <v>-15</v>
+        <v>-15.5</v>
       </c>
       <c r="E5">
-        <v>5966260</v>
+        <v>451388</v>
       </c>
       <c r="F5">
-        <v>2853616</v>
+        <v>130433</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="D6">
-        <v>-17.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E6">
-        <v>861871</v>
+        <v>547760</v>
       </c>
       <c r="F6">
-        <v>550444</v>
+        <v>239343</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C7">
-        <v>-13</v>
+        <v>-11.5</v>
       </c>
       <c r="D7">
-        <v>-16.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E7">
-        <v>94006</v>
+        <v>11171694</v>
       </c>
       <c r="F7">
-        <v>13552</v>
+        <v>1986387</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>-12</v>
+        <v>-12.5</v>
       </c>
       <c r="D8">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E8">
-        <v>3371660</v>
+        <v>3503220</v>
       </c>
       <c r="F8">
-        <v>818663</v>
+        <v>611985</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-10.5</v>
       </c>
       <c r="D9">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E9">
-        <v>1201688</v>
+        <v>833003</v>
       </c>
       <c r="F9">
-        <v>778547</v>
+        <v>250461</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D10">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E10">
-        <v>509739</v>
+        <v>3095258</v>
       </c>
       <c r="F10">
-        <v>348541</v>
+        <v>731175</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-14.5</v>
       </c>
       <c r="E11">
-        <v>1723201</v>
+        <v>26858</v>
       </c>
       <c r="F11">
-        <v>393701</v>
+        <v>183684</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>-14</v>
+        <v>-13.5</v>
       </c>
       <c r="D12">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E12">
-        <v>2411140</v>
+        <v>3775476</v>
       </c>
       <c r="F12">
-        <v>765092</v>
+        <v>1455574</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>-17.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D13">
-        <v>-14.5</v>
+        <v>-15</v>
       </c>
       <c r="E13">
-        <v>7289</v>
+        <v>5966260</v>
       </c>
       <c r="F13">
-        <v>38672</v>
+        <v>2853616</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>-14</v>
+        <v>-13.5</v>
       </c>
       <c r="D14">
         <v>-14.5</v>
       </c>
       <c r="E14">
-        <v>573773</v>
+        <v>1870523</v>
       </c>
       <c r="F14">
-        <v>776925</v>
+        <v>1824651</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>-18</v>
+        <v>-12.5</v>
       </c>
       <c r="D15">
         <v>-15</v>
       </c>
       <c r="E15">
-        <v>3467115</v>
+        <v>162566</v>
       </c>
       <c r="F15">
-        <v>1212328</v>
+        <v>73666</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C16">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="D16">
-        <v>-15</v>
+        <v>-15.5</v>
       </c>
       <c r="E16">
-        <v>399103</v>
+        <v>578705</v>
       </c>
       <c r="F16">
-        <v>460794</v>
+        <v>241596</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>-22</v>
+        <v>-17.5</v>
       </c>
       <c r="D17">
-        <v>-17.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E17">
-        <v>609</v>
+        <v>275831</v>
       </c>
       <c r="F17">
-        <v>6313</v>
+        <v>206849</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <v>-12</v>
       </c>
       <c r="D18">
-        <v>-17.5</v>
+        <v>-15</v>
       </c>
       <c r="E18">
-        <v>677573</v>
+        <v>5613020</v>
       </c>
       <c r="F18">
-        <v>317190</v>
+        <v>1230399</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>-12</v>
       </c>
       <c r="D19">
-        <v>-16</v>
+        <v>-15.5</v>
       </c>
       <c r="E19">
-        <v>14043422</v>
+        <v>1184885</v>
       </c>
       <c r="F19">
-        <v>1311253</v>
+        <v>830983</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>-18.5</v>
+        <v>-13</v>
       </c>
       <c r="D20">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E20">
-        <v>5098</v>
+        <v>509739</v>
       </c>
       <c r="F20">
-        <v>3813</v>
+        <v>348541</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D21">
-        <v>-15</v>
+        <v>-16.5</v>
       </c>
       <c r="E21">
-        <v>505035</v>
+        <v>8836333</v>
       </c>
       <c r="F21">
-        <v>238021</v>
+        <v>4388577</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>-15.5</v>
+        <v>-11.5</v>
       </c>
       <c r="D22">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E22">
-        <v>451388</v>
+        <v>12296902</v>
       </c>
       <c r="F22">
-        <v>130433</v>
+        <v>4828406</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>-11.5</v>
       </c>
       <c r="D23">
-        <v>-17</v>
+        <v>-15.5</v>
       </c>
       <c r="E23">
-        <v>525600</v>
+        <v>2394813</v>
       </c>
       <c r="F23">
-        <v>537886</v>
+        <v>783657</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C24">
-        <v>-14.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D24">
-        <v>-15</v>
+        <v>-16.5</v>
       </c>
       <c r="E24">
-        <v>29308</v>
+        <v>1419140</v>
       </c>
       <c r="F24">
-        <v>81544</v>
+        <v>474186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="C25">
-        <v>-14.5</v>
+        <v>-13.5</v>
       </c>
       <c r="D25">
-        <v>-16</v>
+        <v>-15.5</v>
       </c>
       <c r="E25">
-        <v>631601</v>
+        <v>23011</v>
       </c>
       <c r="F25">
-        <v>297015</v>
+        <v>12879</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>-12</v>
+        <v>-11.5</v>
       </c>
       <c r="D26">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E26">
-        <v>1786500</v>
+        <v>9568685</v>
       </c>
       <c r="F26">
-        <v>213027</v>
+        <v>1474109</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>-11</v>
       </c>
       <c r="D27">
-        <v>-16.5</v>
+        <v>-16</v>
       </c>
       <c r="E27">
-        <v>8836333</v>
+        <v>4348274</v>
       </c>
       <c r="F27">
-        <v>4388577</v>
+        <v>369778</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>-14</v>
+        <v>-10.5</v>
       </c>
       <c r="D28">
         <v>-16</v>
       </c>
       <c r="E28">
-        <v>383286</v>
+        <v>310624</v>
       </c>
       <c r="F28">
-        <v>443581</v>
+        <v>55779</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>-14</v>
+        <v>-13.5</v>
       </c>
       <c r="D29">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E29">
-        <v>206291</v>
+        <v>217646</v>
       </c>
       <c r="F29">
-        <v>86630</v>
+        <v>58470</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="C30">
-        <v>-15.5</v>
+        <v>-11</v>
       </c>
       <c r="D30">
-        <v>-17</v>
+        <v>-5.5</v>
       </c>
       <c r="E30">
-        <v>18299</v>
+        <v>17578278</v>
       </c>
       <c r="F30">
-        <v>1107</v>
+        <v>2061702</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>-13</v>
+        <v>-10.5</v>
       </c>
       <c r="D31">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E31">
-        <v>1409210</v>
+        <v>3312075</v>
       </c>
       <c r="F31">
-        <v>867955</v>
+        <v>178514</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C32">
-        <v>-13.5</v>
+        <v>-11</v>
       </c>
       <c r="D32">
-        <v>-14.5</v>
+        <v>-17</v>
       </c>
       <c r="E32">
-        <v>1870523</v>
+        <v>763314</v>
       </c>
       <c r="F32">
-        <v>1824651</v>
+        <v>103290</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C33">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D33">
         <v>-16</v>
       </c>
       <c r="E33">
-        <v>4348274</v>
+        <v>163974</v>
       </c>
       <c r="F33">
-        <v>369778</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C34">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="D34">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E34">
-        <v>547760</v>
+        <v>2795899</v>
       </c>
       <c r="F34">
-        <v>239343</v>
+        <v>756220</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>-11.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D35">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E35">
-        <v>8219719</v>
+        <v>4900704</v>
       </c>
       <c r="F35">
-        <v>3232255</v>
+        <v>865281</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>-12.5</v>
+        <v>-14</v>
       </c>
       <c r="D36">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E36">
-        <v>312795</v>
+        <v>206291</v>
       </c>
       <c r="F36">
-        <v>79615</v>
+        <v>86630</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>-13.5</v>
+        <v>-12</v>
       </c>
       <c r="D37">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E37">
-        <v>321630</v>
+        <v>3371660</v>
       </c>
       <c r="F37">
-        <v>259292</v>
+        <v>818663</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C38">
-        <v>-23</v>
+        <v>-12.5</v>
       </c>
       <c r="D38">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E38">
-        <v>20921</v>
+        <v>1068030</v>
       </c>
       <c r="F38">
-        <v>5130</v>
+        <v>301432</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C39">
-        <v>-11</v>
+        <v>-13.5</v>
       </c>
       <c r="D39">
-        <v>-16.5</v>
+        <v>-16</v>
       </c>
       <c r="E39">
-        <v>1874361</v>
+        <v>13505</v>
       </c>
       <c r="F39">
-        <v>579823</v>
+        <v>15243</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C40">
-        <v>-18</v>
+        <v>-15.5</v>
       </c>
       <c r="D40">
         <v>-15</v>
       </c>
       <c r="E40">
-        <v>1893</v>
+        <v>986</v>
       </c>
       <c r="F40">
-        <v>19346</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41">
-        <v>-14.5</v>
-      </c>
-      <c r="D41">
-        <v>-16</v>
-      </c>
-      <c r="E41">
-        <v>2919155</v>
-      </c>
-      <c r="F41">
-        <v>1784298</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C42">
-        <v>-12.5</v>
+        <v>-19</v>
       </c>
       <c r="D42">
-        <v>-15</v>
+        <v>-15.5</v>
       </c>
       <c r="E42">
-        <v>4900704</v>
+        <v>6047</v>
       </c>
       <c r="F42">
-        <v>865281</v>
+        <v>33594</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>-16.5</v>
+      </c>
+      <c r="D43">
+        <v>-14.5</v>
+      </c>
+      <c r="E43">
+        <v>2081</v>
+      </c>
+      <c r="F43">
+        <v>5482</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>-11.5</v>
+        <v>-18</v>
       </c>
       <c r="D44">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E44">
-        <v>12296902</v>
+        <v>1893</v>
       </c>
       <c r="F44">
-        <v>4828406</v>
+        <v>19346</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>-12.5</v>
+        <v>-14.5</v>
       </c>
       <c r="D45">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E45">
-        <v>191593</v>
+        <v>29308</v>
       </c>
       <c r="F45">
-        <v>118820</v>
+        <v>81544</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>-13.5</v>
+        <v>-17.5</v>
       </c>
       <c r="D46">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="E46">
-        <v>67760</v>
+        <v>7289</v>
       </c>
       <c r="F46">
-        <v>68831</v>
+        <v>38672</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>-11.5</v>
+        <v>-16</v>
       </c>
       <c r="D47">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E47">
-        <v>9568685</v>
+        <v>41614</v>
       </c>
       <c r="F47">
-        <v>1474109</v>
+        <v>131390</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C48">
-        <v>-12.5</v>
+        <v>-17.5</v>
       </c>
       <c r="D48">
         <v>-15</v>
       </c>
       <c r="E48">
-        <v>162566</v>
+        <v>68957</v>
       </c>
       <c r="F48">
-        <v>73666</v>
+        <v>117605</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C49">
-        <v>-13.5</v>
+        <v>-16</v>
       </c>
       <c r="D49">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E49">
-        <v>3775476</v>
+        <v>91607</v>
       </c>
       <c r="F49">
-        <v>1455574</v>
+        <v>179709</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C50">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D50">
-        <v>-16</v>
+        <v>-15.5</v>
       </c>
       <c r="E50">
-        <v>1673429</v>
+        <v>3826</v>
       </c>
       <c r="F50">
-        <v>1794459</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C51">
-        <v>-13.5</v>
+        <v>-14.5</v>
       </c>
       <c r="D51">
         <v>-16</v>
       </c>
       <c r="E51">
-        <v>217646</v>
+        <v>3321</v>
       </c>
       <c r="F51">
-        <v>58470</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C52">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D52">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="E52">
-        <v>297780</v>
+        <v>73</v>
       </c>
       <c r="F52">
-        <v>88753</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C53">
-        <v>-17.5</v>
+        <v>-18.5</v>
       </c>
       <c r="D53">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="E53">
-        <v>158235</v>
+        <v>503</v>
       </c>
       <c r="F53">
-        <v>282581</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>-12.5</v>
+        <v>-18.5</v>
       </c>
       <c r="D54">
-        <v>-17.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E54">
-        <v>169145</v>
+        <v>126382</v>
       </c>
       <c r="F54">
-        <v>111796</v>
+        <v>314301</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>-12</v>
+        <v>-17.5</v>
       </c>
       <c r="D55">
-        <v>-15.5</v>
+        <v>-14</v>
       </c>
       <c r="E55">
-        <v>1184885</v>
+        <v>158235</v>
       </c>
       <c r="F55">
-        <v>830983</v>
+        <v>282581</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C56">
-        <v>-17.5</v>
+        <v>-13.5</v>
       </c>
       <c r="D56">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E56">
-        <v>16228</v>
+        <v>67760</v>
       </c>
       <c r="F56">
-        <v>3791</v>
+        <v>68831</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C57">
-        <v>-12.5</v>
+        <v>-13.5</v>
       </c>
       <c r="D57">
-        <v>-16</v>
+        <v>-14.5</v>
       </c>
       <c r="E57">
-        <v>1068030</v>
+        <v>1204128</v>
       </c>
       <c r="F57">
-        <v>301432</v>
+        <v>1068629</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>-13.5</v>
       </c>
       <c r="D58">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="E58">
-        <v>4035167</v>
+        <v>321630</v>
       </c>
       <c r="F58">
-        <v>1071651</v>
+        <v>259292</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="D59">
         <v>-15</v>
       </c>
       <c r="E59">
-        <v>41614</v>
+        <v>505035</v>
       </c>
       <c r="F59">
-        <v>131390</v>
+        <v>238021</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>-12.5</v>
+        <v>-18</v>
       </c>
       <c r="D60">
-        <v>-16.5</v>
+        <v>-15</v>
       </c>
       <c r="E60">
-        <v>4797208</v>
+        <v>399103</v>
       </c>
       <c r="F60">
-        <v>1035418</v>
+        <v>460794</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61">
+        <v>-12.5</v>
+      </c>
+      <c r="D61">
         <v>-14.5</v>
       </c>
-      <c r="D61">
-        <v>-17</v>
-      </c>
       <c r="E61">
-        <v>847891</v>
+        <v>497526</v>
       </c>
       <c r="F61">
-        <v>670018</v>
+        <v>86406</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C62">
-        <v>-12.5</v>
+        <v>-11</v>
       </c>
       <c r="D62">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E62">
-        <v>497526</v>
+        <v>11892049</v>
       </c>
       <c r="F62">
-        <v>86406</v>
+        <v>2482742</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C63">
-        <v>-12</v>
+        <v>-17.5</v>
       </c>
       <c r="D63">
-        <v>-16</v>
+        <v>-17.5</v>
       </c>
       <c r="E63">
-        <v>6331636</v>
+        <v>930948</v>
       </c>
       <c r="F63">
-        <v>1235895</v>
+        <v>777238</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C64">
-        <v>-14</v>
+        <v>-16.5</v>
       </c>
       <c r="D64">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E64">
-        <v>62831</v>
+        <v>6682</v>
       </c>
       <c r="F64">
-        <v>62440</v>
+        <v>29716</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>-19.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D65">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="E65">
-        <v>561574</v>
+        <v>2585091</v>
       </c>
       <c r="F65">
-        <v>162268</v>
+        <v>1072753</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C66">
-        <v>-12.5</v>
+        <v>-12</v>
       </c>
       <c r="D66">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E66">
-        <v>2585091</v>
+        <v>1786500</v>
       </c>
       <c r="F66">
-        <v>1072753</v>
+        <v>213027</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C67">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D67">
-        <v>-17</v>
+        <v>-16.5</v>
       </c>
       <c r="E67">
-        <v>2681180</v>
+        <v>1874361</v>
       </c>
       <c r="F67">
-        <v>749356</v>
+        <v>579823</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C68">
-        <v>-15.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D68">
         <v>-16.5</v>
       </c>
       <c r="E68">
-        <v>30005</v>
+        <v>4797208</v>
       </c>
       <c r="F68">
-        <v>58415</v>
+        <v>1035418</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D69">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E69">
-        <v>538777</v>
+        <v>1723201</v>
       </c>
       <c r="F69">
-        <v>237072</v>
+        <v>393701</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C70">
         <v>-12.5</v>
       </c>
       <c r="D70">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="E70">
-        <v>3503220</v>
+        <v>3737966</v>
       </c>
       <c r="F70">
-        <v>611985</v>
+        <v>1169184</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C71">
-        <v>-12</v>
+        <v>-13.5</v>
       </c>
       <c r="D71">
-        <v>-17</v>
+        <v>-14.5</v>
       </c>
       <c r="E71">
-        <v>7073384</v>
+        <v>664208</v>
       </c>
       <c r="F71">
-        <v>1259282</v>
+        <v>963693</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C72">
-        <v>-12.5</v>
+        <v>-13</v>
       </c>
       <c r="D72">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="E72">
-        <v>69910</v>
+        <v>22494</v>
       </c>
       <c r="F72">
-        <v>102707</v>
+        <v>135227</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>-12.5</v>
+      </c>
+      <c r="D73">
+        <v>-15</v>
+      </c>
+      <c r="E73">
+        <v>18268</v>
+      </c>
+      <c r="F73">
+        <v>36500</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C74">
-        <v>-10.5</v>
+        <v>-15.5</v>
       </c>
       <c r="D74">
-        <v>-16</v>
+        <v>-14.5</v>
       </c>
       <c r="E74">
-        <v>833003</v>
+        <v>1190</v>
       </c>
       <c r="F74">
-        <v>250461</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>117</v>
+      </c>
+      <c r="C75">
+        <v>-12</v>
+      </c>
+      <c r="D75">
+        <v>-15.5</v>
+      </c>
+      <c r="E75">
+        <v>130243</v>
+      </c>
+      <c r="F75">
+        <v>75262</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C76">
-        <v>-17.5</v>
+        <v>-13</v>
       </c>
       <c r="D76">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E76">
-        <v>275831</v>
+        <v>1673429</v>
       </c>
       <c r="F76">
-        <v>206849</v>
+        <v>1794459</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="D77">
-        <v>-16.5</v>
+        <v>-17.5</v>
       </c>
       <c r="E77">
-        <v>99751</v>
+        <v>861871</v>
       </c>
       <c r="F77">
-        <v>24382</v>
+        <v>550444</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>-10.5</v>
+        <v>-13</v>
       </c>
       <c r="D78">
-        <v>-16.5</v>
+        <v>-16</v>
       </c>
       <c r="E78">
-        <v>1419140</v>
+        <v>1409210</v>
       </c>
       <c r="F78">
-        <v>474186</v>
+        <v>867955</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C79">
         <v>-12</v>
       </c>
       <c r="D79">
-        <v>-16.5</v>
+        <v>-15</v>
       </c>
       <c r="E79">
-        <v>216141</v>
+        <v>538777</v>
       </c>
       <c r="F79">
-        <v>92107</v>
+        <v>237072</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C80">
-        <v>-18</v>
+        <v>-11.5</v>
       </c>
       <c r="D80">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E80">
-        <v>11302</v>
+        <v>525600</v>
       </c>
       <c r="F80">
-        <v>7708</v>
+        <v>537886</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C81">
-        <v>-14</v>
+        <v>-11.5</v>
       </c>
       <c r="D81">
         <v>-15.5</v>
       </c>
       <c r="E81">
-        <v>3826</v>
+        <v>8219719</v>
       </c>
       <c r="F81">
-        <v>1781</v>
+        <v>3232255</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C82">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D82">
         <v>-16</v>
       </c>
       <c r="E82">
-        <v>326603</v>
+        <v>62831</v>
       </c>
       <c r="F82">
-        <v>305634</v>
+        <v>62440</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>-11.5</v>
+        <v>-14</v>
+      </c>
+      <c r="D83">
+        <v>-14.5</v>
       </c>
       <c r="E83">
-        <v>104</v>
+        <v>573773</v>
+      </c>
+      <c r="F83">
+        <v>776925</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C84">
-        <v>-12.5</v>
+        <v>-11.5</v>
       </c>
       <c r="D84">
-        <v>-15</v>
+        <v>-16.5</v>
       </c>
       <c r="E84">
-        <v>18268</v>
+        <v>3911337</v>
       </c>
       <c r="F84">
-        <v>36500</v>
+        <v>691280</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C85">
-        <v>-15.5</v>
+        <v>-12</v>
       </c>
       <c r="D85">
         <v>-15</v>
       </c>
       <c r="E85">
-        <v>986</v>
+        <v>7434990</v>
       </c>
       <c r="F85">
-        <v>2939</v>
+        <v>1901805</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C86">
-        <v>-16.5</v>
+        <v>-12</v>
       </c>
       <c r="D86">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="E86">
-        <v>6682</v>
+        <v>5187219</v>
       </c>
       <c r="F86">
-        <v>29716</v>
+        <v>1860584</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C87">
-        <v>-15.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D87">
-        <v>-14.5</v>
+        <v>-16</v>
       </c>
       <c r="E87">
-        <v>1190</v>
+        <v>421152</v>
       </c>
       <c r="F87">
-        <v>1162</v>
+        <v>304769</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C88">
-        <v>-10.5</v>
+        <v>-18</v>
       </c>
       <c r="D88">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="E88">
-        <v>3312075</v>
+        <v>11302</v>
       </c>
       <c r="F88">
-        <v>178514</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C89">
-        <v>-12.5</v>
+        <v>-13.5</v>
       </c>
       <c r="D89">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E89">
-        <v>142835</v>
+        <v>591806</v>
       </c>
       <c r="F89">
-        <v>93251</v>
+        <v>477122</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C90">
         <v>-12.5</v>
       </c>
       <c r="D90">
-        <v>-16</v>
+        <v>-17.5</v>
       </c>
       <c r="E90">
-        <v>421152</v>
+        <v>169145</v>
       </c>
       <c r="F90">
-        <v>304769</v>
+        <v>111796</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>-18.5</v>
+        <v>-12</v>
       </c>
       <c r="D91">
-        <v>-16</v>
+        <v>-15.5</v>
       </c>
       <c r="E91">
-        <v>503</v>
+        <v>1201688</v>
       </c>
       <c r="F91">
-        <v>1410</v>
+        <v>778547</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C92">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="D92">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="E92">
-        <v>591729</v>
+        <v>383286</v>
       </c>
       <c r="F92">
-        <v>506574</v>
+        <v>443581</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C93">
-        <v>-17.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D93">
-        <v>-17.5</v>
+        <v>-16</v>
       </c>
       <c r="E93">
-        <v>930948</v>
+        <v>191593</v>
       </c>
       <c r="F93">
-        <v>777238</v>
+        <v>118820</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C94">
-        <v>-13.5</v>
+        <v>-12</v>
       </c>
       <c r="D94">
         <v>-17.5</v>
       </c>
       <c r="E94">
-        <v>281153</v>
+        <v>558277</v>
       </c>
       <c r="F94">
-        <v>211486</v>
+        <v>327995</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C95">
-        <v>-11.5</v>
+        <v>-12</v>
       </c>
       <c r="D95">
         <v>-16.5</v>
       </c>
       <c r="E95">
-        <v>3911337</v>
+        <v>216141</v>
       </c>
       <c r="F95">
-        <v>691280</v>
+        <v>92107</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C96">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D96">
         <v>-17</v>
       </c>
       <c r="E96">
-        <v>763314</v>
+        <v>2681180</v>
       </c>
       <c r="F96">
-        <v>103290</v>
+        <v>749356</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C97">
-        <v>-14.5</v>
+        <v>-12</v>
       </c>
       <c r="D97">
-        <v>-16.5</v>
+        <v>-17</v>
       </c>
       <c r="E97">
-        <v>1281258</v>
+        <v>7073384</v>
       </c>
       <c r="F97">
-        <v>327559</v>
+        <v>1259282</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C98">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="D98">
         <v>-16</v>
       </c>
       <c r="E98">
-        <v>91607</v>
+        <v>14043422</v>
       </c>
       <c r="F98">
-        <v>179709</v>
+        <v>1311253</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>39</v>
+      </c>
+      <c r="C99">
+        <v>-12.5</v>
+      </c>
+      <c r="D99">
+        <v>-15.5</v>
+      </c>
+      <c r="E99">
+        <v>312795</v>
+      </c>
+      <c r="F99">
+        <v>79615</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C100">
-        <v>-12.5</v>
+        <v>-12</v>
       </c>
       <c r="D100">
-        <v>-14.5</v>
+        <v>-16</v>
       </c>
       <c r="E100">
-        <v>3737966</v>
+        <v>6331636</v>
       </c>
       <c r="F100">
-        <v>1169184</v>
+        <v>1235895</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="D101">
-        <v>-17</v>
+        <v>-17.5</v>
       </c>
       <c r="E101">
-        <v>29537</v>
+        <v>677573</v>
       </c>
       <c r="F101">
-        <v>32643</v>
+        <v>317190</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C102">
-        <v>-14.5</v>
+        <v>-13.5</v>
       </c>
       <c r="D102">
-        <v>-17</v>
+        <v>-17.5</v>
       </c>
       <c r="E102">
-        <v>947991</v>
+        <v>281153</v>
       </c>
       <c r="F102">
-        <v>870170</v>
+        <v>211486</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C103">
-        <v>-13</v>
+        <v>-15.5</v>
       </c>
       <c r="D103">
-        <v>-14</v>
+        <v>-16.5</v>
       </c>
       <c r="E103">
-        <v>22494</v>
+        <v>30005</v>
       </c>
       <c r="F103">
-        <v>135227</v>
+        <v>58415</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C104">
-        <v>-13.5</v>
+        <v>-14.5</v>
       </c>
       <c r="D104">
         <v>-16</v>
       </c>
       <c r="E104">
-        <v>13505</v>
+        <v>631601</v>
       </c>
       <c r="F104">
-        <v>15243</v>
+        <v>297015</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C105">
-        <v>-13.5</v>
+        <v>-14.5</v>
       </c>
       <c r="D105">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E105">
-        <v>591806</v>
+        <v>2919155</v>
       </c>
       <c r="F105">
-        <v>477122</v>
+        <v>1784298</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C106">
-        <v>-14.5</v>
+        <v>-13.5</v>
       </c>
       <c r="D106">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E106">
-        <v>3321</v>
+        <v>4035167</v>
       </c>
       <c r="F106">
-        <v>2569</v>
+        <v>1071651</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>-12.5</v>
+        <v>-14</v>
       </c>
       <c r="D107">
         <v>-15.5</v>
       </c>
       <c r="E107">
-        <v>2050220</v>
+        <v>2411140</v>
       </c>
       <c r="F107">
-        <v>765049</v>
+        <v>765092</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C108">
-        <v>-12</v>
+        <v>-14.5</v>
       </c>
       <c r="D108">
-        <v>-15</v>
+        <v>-16.5</v>
       </c>
       <c r="E108">
-        <v>5613020</v>
+        <v>1281258</v>
       </c>
       <c r="F108">
-        <v>1230399</v>
+        <v>327559</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C109">
         <v>-13</v>
       </c>
       <c r="D109">
-        <v>-16</v>
+        <v>-15.5</v>
       </c>
       <c r="E109">
-        <v>85785</v>
+        <v>2534451</v>
       </c>
       <c r="F109">
-        <v>117745</v>
+        <v>747191</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C110">
-        <v>-11</v>
+        <v>-12.5</v>
       </c>
       <c r="D110">
-        <v>-5.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E110">
-        <v>17578278</v>
+        <v>2050220</v>
       </c>
       <c r="F110">
-        <v>2061702</v>
+        <v>765049</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C111">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D111">
-        <v>-14.5</v>
+        <v>-16</v>
       </c>
       <c r="E111">
-        <v>5187219</v>
+        <v>326603</v>
       </c>
       <c r="F111">
-        <v>1860584</v>
+        <v>305634</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C112">
-        <v>-13</v>
+        <v>-12.5</v>
       </c>
       <c r="D112">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E112">
-        <v>73</v>
+        <v>142835</v>
       </c>
       <c r="F112">
-        <v>378</v>
+        <v>93251</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C113">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D113">
-        <v>-14.5</v>
+        <v>-16</v>
       </c>
       <c r="E113">
-        <v>26858</v>
+        <v>85785</v>
       </c>
       <c r="F113">
-        <v>183684</v>
+        <v>117745</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C114">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D114">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E114">
-        <v>130243</v>
+        <v>297780</v>
       </c>
       <c r="F114">
-        <v>75262</v>
+        <v>88753</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>-14</v>
       </c>
       <c r="D115">
-        <v>-14</v>
+        <v>-16.5</v>
+      </c>
+      <c r="E115">
+        <v>88553</v>
       </c>
       <c r="F115">
-        <v>23</v>
+        <v>20260</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C116">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="D116">
-        <v>-15</v>
+        <v>-16.5</v>
       </c>
       <c r="E116">
-        <v>7434990</v>
+        <v>99751</v>
       </c>
       <c r="F116">
-        <v>1901805</v>
+        <v>24382</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C117">
-        <v>-12</v>
+        <v>-15.5</v>
       </c>
       <c r="D117">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E117">
-        <v>163974</v>
+        <v>18299</v>
       </c>
       <c r="F117">
-        <v>7218</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118">
-        <v>-11</v>
-      </c>
-      <c r="D118">
-        <v>-15.5</v>
-      </c>
-      <c r="E118">
-        <v>11892049</v>
-      </c>
-      <c r="F118">
-        <v>2482742</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C119">
-        <v>-13.5</v>
+        <v>-17.5</v>
       </c>
       <c r="D119">
         <v>-15.5</v>
       </c>
       <c r="E119">
-        <v>612109</v>
+        <v>16228</v>
       </c>
       <c r="F119">
-        <v>427048</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="D120">
-        <v>-15.5</v>
+        <v>-16.5</v>
       </c>
       <c r="E120">
-        <v>6047</v>
+        <v>94006</v>
       </c>
       <c r="F120">
-        <v>33594</v>
+        <v>13552</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C121">
-        <v>-13.5</v>
-      </c>
-      <c r="D121">
-        <v>-14.5</v>
+        <v>-11.5</v>
       </c>
       <c r="E121">
-        <v>664208</v>
-      </c>
-      <c r="F121">
-        <v>963693</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C122">
-        <v>-21</v>
+        <v>-14.5</v>
       </c>
       <c r="D122">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E122">
-        <v>8676</v>
+        <v>947991</v>
       </c>
       <c r="F122">
-        <v>7043</v>
+        <v>870170</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123">
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="D123">
-        <v>-15.5</v>
+        <v>-18</v>
       </c>
       <c r="E123">
-        <v>2534451</v>
+        <v>8676</v>
       </c>
       <c r="F123">
-        <v>747191</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C124">
-        <v>-17.5</v>
+        <v>-15</v>
       </c>
       <c r="D124">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="E124">
-        <v>68957</v>
+        <v>29537</v>
       </c>
       <c r="F124">
-        <v>117605</v>
+        <v>32643</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C125">
-        <v>-16.5</v>
+        <v>-15</v>
       </c>
       <c r="D125">
-        <v>-14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E125">
-        <v>2081</v>
+        <v>591729</v>
       </c>
       <c r="F125">
-        <v>5482</v>
+        <v>506574</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C126">
-        <v>-16</v>
+        <v>-13.5</v>
       </c>
       <c r="D126">
-        <v>-15</v>
+        <v>-15.5</v>
       </c>
       <c r="E126">
-        <v>12855</v>
+        <v>612109</v>
       </c>
       <c r="F126">
-        <v>40246</v>
+        <v>427048</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C127">
-        <v>-13.5</v>
+        <v>-14.5</v>
       </c>
       <c r="D127">
-        <v>-14.5</v>
+        <v>-17</v>
       </c>
       <c r="E127">
-        <v>1204128</v>
+        <v>847891</v>
       </c>
       <c r="F127">
-        <v>1068629</v>
+        <v>670018</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C128">
-        <v>-11.5</v>
+        <v>-22</v>
       </c>
       <c r="D128">
-        <v>-14.5</v>
+        <v>-17.5</v>
       </c>
       <c r="E128">
-        <v>11171694</v>
+        <v>609</v>
       </c>
       <c r="F128">
-        <v>1986387</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="C129">
-        <v>-13</v>
+        <v>-18.5</v>
       </c>
       <c r="D129">
-        <v>-15.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E129">
-        <v>578705</v>
+        <v>5098</v>
       </c>
       <c r="F129">
-        <v>241596</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="C130">
-        <v>-11</v>
+        <v>-23</v>
       </c>
       <c r="D130">
-        <v>-16</v>
+        <v>-15.5</v>
       </c>
       <c r="E130">
-        <v>3095258</v>
+        <v>20921</v>
       </c>
       <c r="F130">
-        <v>731175</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>134</v>
-      </c>
       <c r="C131">
-        <v>-13.5</v>
+        <v>-16</v>
       </c>
       <c r="D131">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E131">
-        <v>23011</v>
+        <v>12855</v>
       </c>
       <c r="F131">
-        <v>12879</v>
+        <v>40246</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C132">
-        <v>-11.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D132">
-        <v>-15.5</v>
+        <v>-15</v>
       </c>
       <c r="E132">
-        <v>2394813</v>
+        <v>69910</v>
       </c>
       <c r="F132">
-        <v>783657</v>
+        <v>102707</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133">
-        <v>-12</v>
-      </c>
-      <c r="D133">
-        <v>-17.5</v>
-      </c>
-      <c r="E133">
-        <v>558277</v>
-      </c>
-      <c r="F133">
-        <v>327995</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134">
-        <v>-13</v>
-      </c>
-      <c r="D134">
-        <v>-15.5</v>
-      </c>
-      <c r="E134">
-        <v>2795899</v>
-      </c>
-      <c r="F134">
-        <v>756220</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F134">
+    <sortCondition ref="B1:B134"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>